--- a/ガントチャート/ガントチャート.xlsx
+++ b/ガントチャート/ガントチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1701331\AppData\Roaming\Microsoft\Windows\Network Shortcuts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1701331_船附駿\3年前期開発\スイングバイ_new\計画\ガントチャート\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -354,9 +354,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>重力制御</c:v>
                 </c:pt>
@@ -379,6 +379,9 @@
                   <c:v>UI作成</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>休み</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>着陸ミッション作成</c:v>
                 </c:pt>
               </c:strCache>
@@ -386,10 +389,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>43592</c:v>
                 </c:pt>
@@ -412,7 +415,10 @@
                   <c:v>43601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43602</c:v>
+                  <c:v>43603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,11 +472,30 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4346-4253-BB78-46AA44A05B61}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>重力制御</c:v>
                 </c:pt>
@@ -493,6 +518,9 @@
                   <c:v>UI作成</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>休み</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>着陸ミッション作成</c:v>
                 </c:pt>
               </c:strCache>
@@ -500,10 +528,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -523,9 +551,12 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1260,7 +1291,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
@@ -1285,8 +1316,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:E9" totalsRowShown="0">
-  <autoFilter ref="A1:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
     <tableColumn id="1" name="タスク"/>
     <tableColumn id="2" name="開始日" dataDxfId="1"/>
@@ -1561,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1700,10 +1731,10 @@
         <v>43601</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -1711,18 +1742,35 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>43602</v>
+        <v>43603</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>43604</v>
       </c>
       <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43608</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>

--- a/ガントチャート/ガントチャート.xlsx
+++ b/ガントチャート/ガントチャート.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -232,6 +232,76 @@
     <rPh sb="19" eb="21">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残作業</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプセルのパーティクル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着陸モード</t>
+    <rPh sb="0" eb="2">
+      <t>チャクリク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挙動改善</t>
+    <rPh sb="0" eb="2">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>惑星アニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>ワクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンディング分岐</t>
+    <rPh sb="6" eb="8">
+      <t>ブンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア類</t>
+    <rPh sb="3" eb="4">
+      <t>ルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探査機のパーティクル</t>
+    <rPh sb="0" eb="2">
+      <t>タンサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI(カタカナ)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1326,6 +1396,16 @@
     <tableColumn id="5" name="備考"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A25:A34" totalsRowShown="0">
+  <autoFilter ref="A25:A34"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="残作業"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1592,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1774,13 +1854,64 @@
         <v>19</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>